--- a/PM/CIL.xlsx
+++ b/PM/CIL.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hussi\Desktop\QAproject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Internet-banking-system\PM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3275F0F7-A3FE-4DAF-B513-3874861791BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{84337305-5128-4017-9BD4-286FF972EFDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Configuration Items List</t>
   </si>
@@ -46,9 +45,6 @@
     <t>CI Name</t>
   </si>
   <si>
-    <t>VERSION</t>
-  </si>
-  <si>
     <t>DOCUMENTATION LINK</t>
   </si>
   <si>
@@ -98,12 +94,39 @@
   </si>
   <si>
     <t>https://github.com/EsraaEMostafa/Internet-banking-system.git</t>
+  </si>
+  <si>
+    <t>https://github.com/EsraaEMostafa/Internet-banking-system/tree/develope/Design</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Design_01</t>
+  </si>
+  <si>
+    <t>Latest baswline VERSION</t>
+  </si>
+  <si>
+    <t>V2.0</t>
+  </si>
+  <si>
+    <t>RTM_01</t>
+  </si>
+  <si>
+    <t>RTM</t>
+  </si>
+  <si>
+    <t>V2.2</t>
+  </si>
+  <si>
+    <t>https://github.com/EsraaEMostafa/Internet-banking-system/blob/develope/Requirements/RTM.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -590,11 +613,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02A757B-3A99-426F-87A3-9F8962E0A341}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,93 +644,109 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="C6" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="15" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+    <row r="9" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
@@ -969,11 +1008,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{D268E81C-8A54-49CA-A764-09F1CBA9D241}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{1DAA3E8D-21A1-40F5-B1B8-753BE50F3620}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{77687E17-A60A-4B56-A8F8-B5F12D2113B0}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{D4594F24-E23C-40F2-8616-55EAB571B231}"/>
-    <hyperlink ref="D7" r:id="rId5" xr:uid="{50CA891B-1A37-4BD6-B141-1CE651B69693}"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D7" r:id="rId5"/>
+    <hyperlink ref="D8" r:id="rId6"/>
+    <hyperlink ref="D9" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PM/CIL.xlsx
+++ b/PM/CIL.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Internet-banking-system\PM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\Internet Banking System Main\PM\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36385AC2-1EAC-4FBF-B66B-C0B80F9EF9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>Configuration Items List</t>
   </si>
@@ -63,9 +55,6 @@
     <t>PMP</t>
   </si>
   <si>
-    <t>https://github.com/EsraaEMostafa/Internet-banking-system/blob/main/Requirements/SRS.docx</t>
-  </si>
-  <si>
     <t>SIQ_01</t>
   </si>
   <si>
@@ -96,9 +85,6 @@
     <t>https://github.com/EsraaEMostafa/Internet-banking-system.git</t>
   </si>
   <si>
-    <t>https://github.com/EsraaEMostafa/Internet-banking-system/tree/develope/Design</t>
-  </si>
-  <si>
     <t>Design</t>
   </si>
   <si>
@@ -117,17 +103,56 @@
     <t>RTM</t>
   </si>
   <si>
-    <t>V2.2</t>
-  </si>
-  <si>
-    <t>https://github.com/EsraaEMostafa/Internet-banking-system/blob/develope/Requirements/RTM.xlsx</t>
+    <t>https://github.com/EsraaEMostafa/Internet-banking-system/blob/main/Requirements/InternetBankingSystem_SRS.docx</t>
+  </si>
+  <si>
+    <t>V2.5</t>
+  </si>
+  <si>
+    <t>V2.1</t>
+  </si>
+  <si>
+    <t>https://github.com/EsraaEMostafa/Internet-banking-system/blob/main/Design/Design.docx</t>
+  </si>
+  <si>
+    <t>V3.0</t>
+  </si>
+  <si>
+    <t>https://github.com/EsraaEMostafa/Internet-banking-system/blob/main/Requirements/RTM.xlsx</t>
+  </si>
+  <si>
+    <t>CRs_IDs_01</t>
+  </si>
+  <si>
+    <t>CRS IDs</t>
+  </si>
+  <si>
+    <t>https://github.com/EsraaEMostafa/Internet-banking-system/blob/main/Requirements/CRs_IDs.xlsx</t>
+  </si>
+  <si>
+    <t>Code_01</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>https://github.com/EsraaEMostafa/Internet-banking-system/tree/main/Code/Internet%20Banking%20System</t>
+  </si>
+  <si>
+    <t>DataBase_01</t>
+  </si>
+  <si>
+    <t>DataBase</t>
+  </si>
+  <si>
+    <t>https://github.com/EsraaEMostafa/Internet-banking-system/blob/main/Code/internetbankingsystem.sql</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +206,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -613,11 +644,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,7 +675,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
@@ -658,38 +689,38 @@
         <v>4</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -703,68 +734,92 @@
         <v>6</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="D10" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -1007,14 +1062,18 @@
       <c r="D52" s="13"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="D6" r:id="rId4"/>
-    <hyperlink ref="D7" r:id="rId5"/>
-    <hyperlink ref="D8" r:id="rId6"/>
-    <hyperlink ref="D9" r:id="rId7"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D10" r:id="rId8" xr:uid="{632424B7-A793-41EE-9102-E352A31866F0}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{B323B235-B3F2-44AD-9439-85EDF64C1F39}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{93185468-2C51-4274-B971-69DCED20AD33}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PM/CIL.xlsx
+++ b/PM/CIL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\Internet Banking System Main\PM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36385AC2-1EAC-4FBF-B66B-C0B80F9EF9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3FEED9-C291-4678-BAE2-93C80CB5513A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>Configuration Items List</t>
   </si>
@@ -146,6 +146,18 @@
   </si>
   <si>
     <t>https://github.com/EsraaEMostafa/Internet-banking-system/blob/main/Code/internetbankingsystem.sql</t>
+  </si>
+  <si>
+    <t>V4.0</t>
+  </si>
+  <si>
+    <t>Review_Doc_1</t>
+  </si>
+  <si>
+    <t>Work product Review Comments</t>
+  </si>
+  <si>
+    <t>https://github.com/EsraaEMostafa/Internet-banking-system/blob/main/Requirements/Work%20product%20Review%20Comments.xlsx</t>
   </si>
 </sst>
 </file>
@@ -647,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,7 +771,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>28</v>
@@ -821,11 +833,19 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+    <row r="13" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
@@ -1074,6 +1094,7 @@
     <hyperlink ref="D10" r:id="rId8" xr:uid="{632424B7-A793-41EE-9102-E352A31866F0}"/>
     <hyperlink ref="D11" r:id="rId9" xr:uid="{B323B235-B3F2-44AD-9439-85EDF64C1F39}"/>
     <hyperlink ref="D12" r:id="rId10" xr:uid="{93185468-2C51-4274-B971-69DCED20AD33}"/>
+    <hyperlink ref="D13" r:id="rId11" xr:uid="{EB8C34C8-CA79-49B1-A243-1D4EC55992EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PM/CIL.xlsx
+++ b/PM/CIL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\Internet Banking System Main\PM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3FEED9-C291-4678-BAE2-93C80CB5513A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286B82BF-129D-4B43-B8CE-D9089BEC1AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>Configuration Items List</t>
   </si>
@@ -106,9 +106,6 @@
     <t>https://github.com/EsraaEMostafa/Internet-banking-system/blob/main/Requirements/InternetBankingSystem_SRS.docx</t>
   </si>
   <si>
-    <t>V2.5</t>
-  </si>
-  <si>
     <t>V2.1</t>
   </si>
   <si>
@@ -158,6 +155,12 @@
   </si>
   <si>
     <t>https://github.com/EsraaEMostafa/Internet-banking-system/blob/main/Requirements/Work%20product%20Review%20Comments.xlsx</t>
+  </si>
+  <si>
+    <t>V2.6</t>
+  </si>
+  <si>
+    <t>V5.0</t>
   </si>
 </sst>
 </file>
@@ -659,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,7 +704,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>25</v>
@@ -715,7 +718,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>11</v>
@@ -743,7 +746,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>15</v>
@@ -771,10 +774,10 @@
         <v>19</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -785,66 +788,66 @@
         <v>24</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="C11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>35</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">

--- a/PM/CIL.xlsx
+++ b/PM/CIL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\Internet Banking System Main\PM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286B82BF-129D-4B43-B8CE-D9089BEC1AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D2BCBC-BE54-459B-A71A-21F052280F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="48">
   <si>
     <t>Configuration Items List</t>
   </si>
@@ -161,6 +161,15 @@
   </si>
   <si>
     <t>V5.0</t>
+  </si>
+  <si>
+    <t>Schedule_1</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>https://trello.com/b/taMWvIDS/banking-system</t>
   </si>
 </sst>
 </file>
@@ -660,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,152 +721,158 @@
     </row>
     <row r="4" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D5" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="6" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D6" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="7" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D7" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="8" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D8" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+    <row r="9" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D9" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+    <row r="10" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D10" s="15" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B13" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>41</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
       <c r="B15" s="3"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -1067,16 +1082,16 @@
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
@@ -1084,20 +1099,27 @@
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
     </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="13"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D10" r:id="rId8" xr:uid="{632424B7-A793-41EE-9102-E352A31866F0}"/>
-    <hyperlink ref="D11" r:id="rId9" xr:uid="{B323B235-B3F2-44AD-9439-85EDF64C1F39}"/>
-    <hyperlink ref="D12" r:id="rId10" xr:uid="{93185468-2C51-4274-B971-69DCED20AD33}"/>
-    <hyperlink ref="D13" r:id="rId11" xr:uid="{EB8C34C8-CA79-49B1-A243-1D4EC55992EE}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D11" r:id="rId8" xr:uid="{632424B7-A793-41EE-9102-E352A31866F0}"/>
+    <hyperlink ref="D12" r:id="rId9" xr:uid="{B323B235-B3F2-44AD-9439-85EDF64C1F39}"/>
+    <hyperlink ref="D13" r:id="rId10" xr:uid="{93185468-2C51-4274-B971-69DCED20AD33}"/>
+    <hyperlink ref="D14" r:id="rId11" xr:uid="{EB8C34C8-CA79-49B1-A243-1D4EC55992EE}"/>
+    <hyperlink ref="D4" r:id="rId12" xr:uid="{F485C81F-CDFA-40C5-B2F9-165C25B1F3BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PM/CIL.xlsx
+++ b/PM/CIL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\Internet Banking System Main\PM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D2BCBC-BE54-459B-A71A-21F052280F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38261B45-C9BE-499B-9F14-8EEBBE49DCF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>Configuration Items List</t>
   </si>
@@ -145,9 +145,6 @@
     <t>https://github.com/EsraaEMostafa/Internet-banking-system/blob/main/Code/internetbankingsystem.sql</t>
   </si>
   <si>
-    <t>V4.0</t>
-  </si>
-  <si>
     <t>Review_Doc_1</t>
   </si>
   <si>
@@ -170,6 +167,33 @@
   </si>
   <si>
     <t>https://trello.com/b/taMWvIDS/banking-system</t>
+  </si>
+  <si>
+    <t>change_Doc_1</t>
+  </si>
+  <si>
+    <t>change requests document</t>
+  </si>
+  <si>
+    <t>https://github.com/EsraaEMostafa/Internet-banking-system/blob/main/Requirements/change%20requests%20document.xlsx</t>
+  </si>
+  <si>
+    <t>Test_Plan_1</t>
+  </si>
+  <si>
+    <t>Testing Plan</t>
+  </si>
+  <si>
+    <t>https://github.com/EsraaEMostafa/Internet-banking-system/blob/main/Testing/Testing%20Plan.docx</t>
+  </si>
+  <si>
+    <t>Test_case_1</t>
+  </si>
+  <si>
+    <t>Test Cases Internet Banking System</t>
+  </si>
+  <si>
+    <t>https://github.com/EsraaEMostafa/Internet-banking-system/blob/main/Testing/Test%20Cases%20Internet%20Banking%20System.xlsx</t>
   </si>
 </sst>
 </file>
@@ -671,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,7 +737,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>25</v>
@@ -721,14 +745,14 @@
     </row>
     <row r="4" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -795,7 +819,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>27</v>
@@ -809,7 +833,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>29</v>
@@ -859,35 +883,59 @@
     </row>
     <row r="14" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="10" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="D16" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
@@ -1120,6 +1168,9 @@
     <hyperlink ref="D13" r:id="rId10" xr:uid="{93185468-2C51-4274-B971-69DCED20AD33}"/>
     <hyperlink ref="D14" r:id="rId11" xr:uid="{EB8C34C8-CA79-49B1-A243-1D4EC55992EE}"/>
     <hyperlink ref="D4" r:id="rId12" xr:uid="{F485C81F-CDFA-40C5-B2F9-165C25B1F3BC}"/>
+    <hyperlink ref="D15" r:id="rId13" xr:uid="{C3BEF4FA-2273-49AD-9EA8-521D072300A1}"/>
+    <hyperlink ref="D16" r:id="rId14" xr:uid="{E3486996-9F82-4590-B8F3-5AF15CEF3FF4}"/>
+    <hyperlink ref="D17" r:id="rId15" xr:uid="{7166D399-19E5-4593-B62D-62F4D1290BD6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PM/CIL.xlsx
+++ b/PM/CIL.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\Internet Banking System Main\PM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Internet-banking-system\PM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38261B45-C9BE-499B-9F14-8EEBBE49DCF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
   <si>
     <t>Configuration Items List</t>
   </si>
@@ -194,12 +193,28 @@
   </si>
   <si>
     <t>https://github.com/EsraaEMostafa/Internet-banking-system/blob/main/Testing/Test%20Cases%20Internet%20Banking%20System.xlsx</t>
+  </si>
+  <si>
+    <t>Bug Report</t>
+  </si>
+  <si>
+    <t>Test Summary Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bug Report
+</t>
+  </si>
+  <si>
+    <t>https://github.com/EsraaEMostafa/Internet-banking-system/blob/main/Testing/Bug%20Report.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/EsraaEMostafa/Internet-banking-system/blob/main/Testing/Test%20Summary%20Report.docx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -692,11 +707,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,17 +952,33 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+    <row r="18" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
@@ -1156,21 +1187,23 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D11" r:id="rId8" xr:uid="{632424B7-A793-41EE-9102-E352A31866F0}"/>
-    <hyperlink ref="D12" r:id="rId9" xr:uid="{B323B235-B3F2-44AD-9439-85EDF64C1F39}"/>
-    <hyperlink ref="D13" r:id="rId10" xr:uid="{93185468-2C51-4274-B971-69DCED20AD33}"/>
-    <hyperlink ref="D14" r:id="rId11" xr:uid="{EB8C34C8-CA79-49B1-A243-1D4EC55992EE}"/>
-    <hyperlink ref="D4" r:id="rId12" xr:uid="{F485C81F-CDFA-40C5-B2F9-165C25B1F3BC}"/>
-    <hyperlink ref="D15" r:id="rId13" xr:uid="{C3BEF4FA-2273-49AD-9EA8-521D072300A1}"/>
-    <hyperlink ref="D16" r:id="rId14" xr:uid="{E3486996-9F82-4590-B8F3-5AF15CEF3FF4}"/>
-    <hyperlink ref="D17" r:id="rId15" xr:uid="{7166D399-19E5-4593-B62D-62F4D1290BD6}"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D5" r:id="rId2"/>
+    <hyperlink ref="D6" r:id="rId3"/>
+    <hyperlink ref="D7" r:id="rId4"/>
+    <hyperlink ref="D8" r:id="rId5"/>
+    <hyperlink ref="D9" r:id="rId6"/>
+    <hyperlink ref="D10" r:id="rId7"/>
+    <hyperlink ref="D11" r:id="rId8"/>
+    <hyperlink ref="D12" r:id="rId9"/>
+    <hyperlink ref="D13" r:id="rId10"/>
+    <hyperlink ref="D14" r:id="rId11"/>
+    <hyperlink ref="D4" r:id="rId12"/>
+    <hyperlink ref="D15" r:id="rId13"/>
+    <hyperlink ref="D16" r:id="rId14"/>
+    <hyperlink ref="D17" r:id="rId15"/>
+    <hyperlink ref="D18" r:id="rId16"/>
+    <hyperlink ref="D19" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PM/CIL.xlsx
+++ b/PM/CIL.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
   <si>
     <t>Configuration Items List</t>
   </si>
@@ -209,6 +209,13 @@
   </si>
   <si>
     <t>https://github.com/EsraaEMostafa/Internet-banking-system/blob/main/Testing/Test%20Summary%20Report.docx</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1DQOXWgOSD7XI2SlSktrbbhm2z0jRT1W9WfkCgbjMYA8/edit#gid=0</t>
+  </si>
+  <si>
+    <t>Test_case_1
+google drive for beginning TC</t>
   </si>
 </sst>
 </file>
@@ -710,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,11 +987,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+    <row r="20" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="15" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
